--- a/documentation/journal de bord.xlsx
+++ b/documentation/journal de bord.xlsx
@@ -18,8 +18,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">date </t>
+  </si>
+  <si>
+    <t>evenement</t>
+  </si>
+  <si>
+    <t>premier rdv avec le chef de projet et decouverte du CdC</t>
+  </si>
+  <si>
+    <t>validation preliminaire du mcd avec le Cdp + discussion sur la methodologie et environement de travail</t>
+  </si>
+  <si>
+    <t>discussion avec le Cdp sur la methode agile le github et le sprint planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussion et planification avec le Cdp de la premiere sprint review </t>
+  </si>
+  <si>
+    <t>sprint review</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,7 +99,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +144,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +179,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +361,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44967</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44977</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/journal de bord.xlsx
+++ b/documentation/journal de bord.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1555F0A5-A0E8-4039-A3FE-C1E49985705E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6345" yWindow="2670" windowWidth="18870" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">date </t>
   </si>
   <si>
-    <t>evenement</t>
-  </si>
-  <si>
     <t>premier rdv avec le chef de projet et decouverte du CdC</t>
   </si>
   <si>
@@ -39,15 +37,30 @@
     <t xml:space="preserve">discussion et planification avec le Cdp de la premiere sprint review </t>
   </si>
   <si>
-    <t>sprint review</t>
+    <t>discussion avec le Cdp la documentation et l'echange regulier de mail</t>
+  </si>
+  <si>
+    <t>rencontre avec M Hurni pour une explication du fonctionement des requètes Sql dans Laravel</t>
+  </si>
+  <si>
+    <t>rencontre avec Mme Andolfatto pour une explication de la syntaxe des porcedure stocker dans Mariadb</t>
+  </si>
+  <si>
+    <t>événement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planification du sprint 2 </t>
+  </si>
+  <si>
+    <t>sprint review login et signin fonctionel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -78,9 +91,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,65 +376,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44958</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44963</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44967</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44977</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44984</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44987</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44987</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44981</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/journal de bord.xlsx
+++ b/documentation/journal de bord.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1555F0A5-A0E8-4039-A3FE-C1E49985705E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="2670" windowWidth="18870" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6345" yWindow="2670" windowWidth="18870" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">date </t>
   </si>
@@ -53,12 +52,15 @@
   </si>
   <si>
     <t>sprint review login et signin fonctionel</t>
+  </si>
+  <si>
+    <t>rencontre avec M Hurni pour une explication du fonctionement des Models (mon sauveur)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -376,11 +378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,6 +471,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44993</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/journal de bord.xlsx
+++ b/documentation/journal de bord.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB90466C-FF76-4094-8398-42FC76310FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="2670" windowWidth="18870" windowHeight="10260"/>
+    <workbookView xWindow="6345" yWindow="2670" windowWidth="18870" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">date </t>
   </si>
@@ -55,12 +56,18 @@
   </si>
   <si>
     <t>rencontre avec M Hurni pour une explication du fonctionement des Models (mon sauveur)</t>
+  </si>
+  <si>
+    <t>sprint 2 review horaire fonctionel</t>
+  </si>
+  <si>
+    <t>discussion sur la documentation avec le Cdp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -378,11 +385,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,6 +486,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45005</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45005</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/journal de bord.xlsx
+++ b/documentation/journal de bord.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB90466C-FF76-4094-8398-42FC76310FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="2670" windowWidth="18870" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6345" yWindow="2670" windowWidth="18870" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">date </t>
   </si>
@@ -40,12 +39,6 @@
     <t>discussion avec le Cdp la documentation et l'echange regulier de mail</t>
   </si>
   <si>
-    <t>rencontre avec M Hurni pour une explication du fonctionement des requètes Sql dans Laravel</t>
-  </si>
-  <si>
-    <t>rencontre avec Mme Andolfatto pour une explication de la syntaxe des porcedure stocker dans Mariadb</t>
-  </si>
-  <si>
     <t>événement</t>
   </si>
   <si>
@@ -62,12 +55,21 @@
   </si>
   <si>
     <t>discussion sur la documentation avec le Cdp</t>
+  </si>
+  <si>
+    <t>rencontre avec M. Hurni pour une explication du fonctionement des requètes Sql dans Laravel</t>
+  </si>
+  <si>
+    <t>rencontre avec Mme. Andolfatto pour une explication de la syntaxe des porcedure stocker dans Mariadb</t>
+  </si>
+  <si>
+    <t>echange de mail sur pratique sql avec M.Glassey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -385,11 +387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -438,20 +440,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44980</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44984</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -459,7 +461,7 @@
         <v>44987</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -467,7 +469,7 @@
         <v>44987</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -483,23 +485,31 @@
         <v>44993</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45005</v>
+        <v>44998</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>44998</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45005</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/journal de bord.xlsx
+++ b/documentation/journal de bord.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">date </t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>echange de mail sur pratique sql avec M.Glassey</t>
+  </si>
+  <si>
+    <t>rencontre avec M Hurni pour une explication du fonctionement du dom et JS</t>
+  </si>
+  <si>
+    <t>sprint 3 review Carpooling</t>
+  </si>
+  <si>
+    <t>discussion avec le Cdp sur le deployement</t>
   </si>
 </sst>
 </file>
@@ -388,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,12 +513,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45005</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45005</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45007</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/journal de bord.xlsx
+++ b/documentation/journal de bord.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="2670" windowWidth="18870" windowHeight="10260"/>
+    <workbookView xWindow="6345" yWindow="2670" windowWidth="18870" windowHeight="10260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">date </t>
   </si>
@@ -73,6 +74,24 @@
   </si>
   <si>
     <t>discussion avec le Cdp sur le deployement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revue de la production avec M.Savary </t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>resultat</t>
   </si>
 </sst>
 </file>
@@ -111,11 +130,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,156 +428,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>44958</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>44963</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>44967</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>44977</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>44980</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>44984</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>44987</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>44987</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>44991</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>44993</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>44998</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <v>44998</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>45005</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>45005</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
         <v>45007</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <v>45012</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45013</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45014</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/journal de bord.xlsx
+++ b/documentation/journal de bord.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="2670" windowWidth="18870" windowHeight="10260" activeTab="1"/>
+    <workbookView xWindow="6345" yWindow="2670" windowWidth="18870" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">date </t>
   </si>
@@ -80,18 +79,6 @@
   </si>
   <si>
     <t>Release</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>resultat</t>
   </si>
 </sst>
 </file>
@@ -430,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -596,40 +583,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>